--- a/氣象性能評估工具V2/data/obs/backup/2016-06-12_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-12_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-12 00:00:00</t>
+    <t>2016-06-12-00</t>
   </si>
   <si>
     <t>21.3</t>
@@ -154,7 +154,7 @@
     <t>26.1</t>
   </si>
   <si>
-    <t>2016-06-12 01:00:00</t>
+    <t>2016-06-12-01</t>
   </si>
   <si>
     <t>21.6</t>
@@ -199,7 +199,7 @@
     <t>25.1</t>
   </si>
   <si>
-    <t>2016-06-12 02:00:00</t>
+    <t>2016-06-12-02</t>
   </si>
   <si>
     <t>21.9</t>
@@ -217,7 +217,7 @@
     <t>26.5</t>
   </si>
   <si>
-    <t>2016-06-12 03:00:00</t>
+    <t>2016-06-12-03</t>
   </si>
   <si>
     <t>22.1</t>
@@ -241,7 +241,7 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>2016-06-12 04:00:00</t>
+    <t>2016-06-12-04</t>
   </si>
   <si>
     <t>22.3</t>
@@ -265,7 +265,7 @@
     <t>27.7</t>
   </si>
   <si>
-    <t>2016-06-12 05:00:00</t>
+    <t>2016-06-12-05</t>
   </si>
   <si>
     <t>26.0</t>
@@ -292,7 +292,7 @@
     <t>28.4</t>
   </si>
   <si>
-    <t>2016-06-12 06:00:00</t>
+    <t>2016-06-12-06</t>
   </si>
   <si>
     <t>24.2</t>
@@ -319,7 +319,7 @@
     <t>28.8</t>
   </si>
   <si>
-    <t>2016-06-12 07:00:00</t>
+    <t>2016-06-12-07</t>
   </si>
   <si>
     <t>23.4</t>
@@ -343,7 +343,7 @@
     <t>29.9</t>
   </si>
   <si>
-    <t>2016-06-12 08:00:00</t>
+    <t>2016-06-12-08</t>
   </si>
   <si>
     <t>23.8</t>
@@ -379,7 +379,7 @@
     <t>30.9</t>
   </si>
   <si>
-    <t>2016-06-12 09:00:00</t>
+    <t>2016-06-12-09</t>
   </si>
   <si>
     <t>29.4</t>
@@ -421,7 +421,7 @@
     <t>30.3</t>
   </si>
   <si>
-    <t>2016-06-12 10:00:00</t>
+    <t>2016-06-12-10</t>
   </si>
   <si>
     <t>32.5</t>
@@ -445,7 +445,7 @@
     <t>31.9</t>
   </si>
   <si>
-    <t>2016-06-12 11:00:00</t>
+    <t>2016-06-12-11</t>
   </si>
   <si>
     <t>31.5</t>
@@ -454,7 +454,7 @@
     <t>21.5</t>
   </si>
   <si>
-    <t>2016-06-12 12:00:00</t>
+    <t>2016-06-12-12</t>
   </si>
   <si>
     <t>23.6</t>
@@ -466,7 +466,7 @@
     <t>28.6</t>
   </si>
   <si>
-    <t>2016-06-12 13:00:00</t>
+    <t>2016-06-12-13</t>
   </si>
   <si>
     <t>24.0</t>
@@ -481,7 +481,7 @@
     <t>27.5</t>
   </si>
   <si>
-    <t>2016-06-12 14:00:00</t>
+    <t>2016-06-12-14</t>
   </si>
   <si>
     <t>23.0</t>
@@ -496,13 +496,13 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>2016-06-12 15:00:00</t>
+    <t>2016-06-12-15</t>
   </si>
   <si>
     <t>22.5</t>
   </si>
   <si>
-    <t>2016-06-12 16:00:00</t>
+    <t>2016-06-12-16</t>
   </si>
   <si>
     <t>23.7</t>
@@ -520,16 +520,16 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>2016-06-12 17:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-12 18:00:00</t>
+    <t>2016-06-12-17</t>
+  </si>
+  <si>
+    <t>2016-06-12-18</t>
   </si>
   <si>
     <t>21.8</t>
   </si>
   <si>
-    <t>2016-06-12 19:00:00</t>
+    <t>2016-06-12-19</t>
   </si>
   <si>
     <t>20.9</t>
@@ -541,7 +541,7 @@
     <t>20.3</t>
   </si>
   <si>
-    <t>2016-06-12 20:00:00</t>
+    <t>2016-06-12-20</t>
   </si>
   <si>
     <t>23.9</t>
@@ -556,7 +556,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-12 21:00:00</t>
+    <t>2016-06-12-21</t>
   </si>
   <si>
     <t>20.1</t>
@@ -565,13 +565,13 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>2016-06-12 22:00:00</t>
+    <t>2016-06-12-22</t>
   </si>
   <si>
     <t>13.3</t>
   </si>
   <si>
-    <t>2016-06-12 23:00:00</t>
+    <t>2016-06-12-23</t>
   </si>
   <si>
     <t>23.1</t>
